--- a/results/mp/tinybert/corona/confidence/84/0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,64 +55,76 @@
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
@@ -121,25 +133,58 @@
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
     <t>the</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -497,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -566,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -616,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7337662337662337</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="C4">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="D4">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3304721030042919</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D5">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>156</v>
+        <v>405</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2558139534883721</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1703703703703704</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -784,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -812,41 +857,17 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>95</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,21 +879,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -884,21 +905,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8235294117647058</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -910,21 +931,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -936,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -962,21 +983,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7678571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -988,21 +1009,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.717948717948718</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1014,21 +1035,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.68</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1040,21 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6575342465753424</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1066,47 +1087,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.625</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L17">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>36</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>15</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1118,21 +1139,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6060606060606061</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1144,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5446009389671361</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1170,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5069444444444444</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L21">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="M21">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1196,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5038759689922481</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L22">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1222,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.5430809399477807</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1248,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1274,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4347826086956522</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1300,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.03286384976525822</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1326,85 +1347,501 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>412</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.0151024811218986</v>
+        <v>0.4542372881355932</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>913</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.01203438395415473</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>1724</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>0.3849372384937239</v>
+      </c>
+      <c r="L29">
+        <v>92</v>
+      </c>
+      <c r="M29">
+        <v>92</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K29">
-        <v>0.008056394763343404</v>
-      </c>
-      <c r="L29">
-        <v>16</v>
-      </c>
-      <c r="M29">
-        <v>19</v>
-      </c>
-      <c r="N29">
+      <c r="K30">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>27</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>0.03691275167785235</v>
+      </c>
+      <c r="L32">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="L33">
+        <v>40</v>
+      </c>
+      <c r="M33">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.03140830800405268</v>
+      </c>
+      <c r="L34">
+        <v>31</v>
+      </c>
+      <c r="M34">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.02996670366259711</v>
+      </c>
+      <c r="L35">
+        <v>27</v>
+      </c>
+      <c r="M35">
+        <v>27</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>0.02199874292897549</v>
+      </c>
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>38</v>
+      </c>
+      <c r="N36">
+        <v>0.92</v>
+      </c>
+      <c r="O36">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.02134032197678772</v>
+      </c>
+      <c r="L37">
+        <v>57</v>
+      </c>
+      <c r="M37">
+        <v>59</v>
+      </c>
+      <c r="N37">
+        <v>0.97</v>
+      </c>
+      <c r="O37">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>0.0204582651391162</v>
+      </c>
+      <c r="L38">
+        <v>50</v>
+      </c>
+      <c r="M38">
+        <v>51</v>
+      </c>
+      <c r="N38">
+        <v>0.98</v>
+      </c>
+      <c r="O38">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <v>0.01637043966323667</v>
+      </c>
+      <c r="L39">
+        <v>35</v>
+      </c>
+      <c r="M39">
+        <v>40</v>
+      </c>
+      <c r="N39">
+        <v>0.88</v>
+      </c>
+      <c r="O39">
+        <v>0.12</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40">
+        <v>0.01543086172344689</v>
+      </c>
+      <c r="L40">
+        <v>77</v>
+      </c>
+      <c r="M40">
+        <v>83</v>
+      </c>
+      <c r="N40">
+        <v>0.93</v>
+      </c>
+      <c r="O40">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>4913</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41">
+        <v>0.01387082791504118</v>
+      </c>
+      <c r="L41">
+        <v>32</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O41">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42">
+        <v>0.01306363253265908</v>
+      </c>
+      <c r="L42">
+        <v>31</v>
+      </c>
+      <c r="M42">
+        <v>37</v>
+      </c>
+      <c r="N42">
         <v>0.84</v>
       </c>
-      <c r="O29">
+      <c r="O42">
         <v>0.16</v>
       </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>1970</v>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43">
+        <v>0.01294199214236191</v>
+      </c>
+      <c r="L43">
+        <v>56</v>
+      </c>
+      <c r="M43">
+        <v>57</v>
+      </c>
+      <c r="N43">
+        <v>0.98</v>
+      </c>
+      <c r="O43">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44">
+        <v>0.01163016088389223</v>
+      </c>
+      <c r="L44">
+        <v>60</v>
+      </c>
+      <c r="M44">
+        <v>66</v>
+      </c>
+      <c r="N44">
+        <v>0.91</v>
+      </c>
+      <c r="O44">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45">
+        <v>0.009990331936835321</v>
+      </c>
+      <c r="L45">
+        <v>31</v>
+      </c>
+      <c r="M45">
+        <v>35</v>
+      </c>
+      <c r="N45">
+        <v>0.89</v>
+      </c>
+      <c r="O45">
+        <v>0.11</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3072</v>
       </c>
     </row>
   </sheetData>
